--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74066.19741950255</v>
+        <v>-77034.77622310088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.99869257</v>
+        <v>7757679.400320123</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13093637.42160412</v>
+        <v>13094380.88143363</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>299.0476264458002</v>
       </c>
       <c r="Y2" t="n">
-        <v>66.8690242323346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>150.3227969010357</v>
       </c>
       <c r="W4" t="n">
-        <v>51.62712572578804</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>180.3660693243154</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>51.71513253675952</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>41.65592056208461</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>160.2491677474088</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>318.4517411129985</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>231.6000155308928</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>275.1622158054969</v>
       </c>
       <c r="X10" t="n">
-        <v>182.8258003202644</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1579,13 +1579,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>150.2062474346968</v>
+        <v>30.27693440363575</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>14.06814972518865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>73.34931970215608</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>206.1529509958783</v>
+        <v>156.1763214204152</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>98.84105469403737</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>282.050192445698</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>148.1736287443606</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>172.6641545385577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,16 +2533,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>73.32105727852002</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>173.4465437153638</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2965,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>164.0303052244709</v>
       </c>
       <c r="Y31" t="n">
-        <v>124.2292170629834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>177.2529335102095</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49.45875012883114</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.820581188166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286618</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672379</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.88133918168114</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698773</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>50.80546296227647</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>408.3062316354152</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.563092004545</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668791</v>
+        <v>175.5610162827825</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835697</v>
+        <v>162.975857199473</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031542</v>
+        <v>144.3445091190575</v>
       </c>
       <c r="E40" t="n">
-        <v>142.272787631511</v>
+        <v>142.1629987474143</v>
       </c>
       <c r="F40" t="n">
-        <v>141.2598730078731</v>
+        <v>141.1500841237764</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621087</v>
+        <v>161.2710889780121</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768957</v>
+        <v>136.1830258927992</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935084</v>
+        <v>77.53361284525442</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602537</v>
+        <v>62.90978769192908</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434008</v>
+        <v>177.0675244593043</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477036</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.92345506929394</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>246.5323626926704</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215328</v>
+        <v>282.2520344374362</v>
       </c>
       <c r="X40" t="n">
-        <v>221.548480373979</v>
+        <v>221.4386914898823</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370366</v>
+        <v>214.31368945294</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.563092004545</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261709</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>140.4471302624961</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.7096541297384</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.08582897641305</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437883</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.1518984839569</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>123.5205504035414</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>120.3261254082603</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.70965412973834</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480909</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337495</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091571</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219201</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>200.6147327743662</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
         <v>1210.087414675782</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.475507338148</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.878965009939</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>391.878965009939</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>391.878965009939</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.878965009939</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1778.063616086466</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1390.593246102218</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1390.593246102218</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1004.804993503973</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.202948062278</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1778.063616086466</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4665,22 +4665,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>686.0522967699853</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>458.7441094385871</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>458.7441094385871</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1325.851540579792</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>940.0632879815475</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>529.07738319194</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2287.032193705228</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1934.263538435114</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.797780174034</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.80799380017</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>543.4564586304098</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>543.4564586304098</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5048,10 +5048,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C13" t="n">
         <v>951.7264155301116</v>
@@ -5197,52 +5197,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953282</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442042</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892249</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V13" t="n">
-        <v>1523.103642431788</v>
+        <v>1133.374880360351</v>
       </c>
       <c r="W13" t="n">
-        <v>1523.103642431788</v>
+        <v>1133.374880360351</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>1133.374880360351</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>1133.374880360351</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755164</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.6978970137291</v>
+        <v>781.8112129900594</v>
       </c>
       <c r="C16" t="n">
-        <v>706.4876447660638</v>
+        <v>612.8750300621525</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>462.7583906498168</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
@@ -5440,46 +5440,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951852</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952179</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104694</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104694</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104694</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104694</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1956.343466104694</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.55611102446</v>
+        <v>1701.658977898807</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.138940987499</v>
+        <v>1412.241807861847</v>
       </c>
       <c r="X16" t="n">
-        <v>1123.138940987499</v>
+        <v>1184.252256963829</v>
       </c>
       <c r="Y16" t="n">
-        <v>902.3463618439688</v>
+        <v>963.4596778202991</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L17" t="n">
         <v>1482.778354750621</v>
@@ -5525,16 +5525,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.1131475839755</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1769646560687</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>411.1769646560686</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953263</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442027</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292699</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598113</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501053</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626696</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208094</v>
       </c>
       <c r="W19" t="n">
-        <v>982.5541915577454</v>
+        <v>841.349751400188</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5541915577454</v>
+        <v>613.3602005021706</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7616124142153</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1172.647446689875</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.6328654632896</v>
+        <v>491.7343098287687</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6966825353827</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5917,7 +5917,7 @@
         <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1479.758397642946</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1225.073909437059</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1225.073909437059</v>
+        <v>901.3723255570258</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.073909437059</v>
+        <v>673.3827746590084</v>
       </c>
       <c r="Y22" t="n">
-        <v>1004.281330293529</v>
+        <v>673.3827746590084</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637.1336314069201</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C25" t="n">
-        <v>637.1336314069201</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D25" t="n">
-        <v>487.0169919945844</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1692.104771954598</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1470.338156524124</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.235289649768</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>926.5508014438808</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W25" t="n">
-        <v>637.1336314069201</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X25" t="n">
-        <v>637.1336314069201</v>
+        <v>928.0672628648947</v>
       </c>
       <c r="Y25" t="n">
-        <v>637.1336314069201</v>
+        <v>707.2746837213646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6239,37 +6239,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>749.804591984086</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8684090561791</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851286</v>
+        <v>1270.275454794455</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143257</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="X28" t="n">
-        <v>931.4530568143257</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y28" t="n">
-        <v>931.4530568143257</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6622,49 +6622,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898816</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861856</v>
+        <v>1220.555923688683</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.252256963838</v>
+        <v>1054.868746694268</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.768199324461</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1002.918095296203</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C34" t="n">
-        <v>833.9819123682963</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D34" t="n">
-        <v>683.8652729559606</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E34" t="n">
-        <v>535.9521793735674</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>389.0622318756571</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783412</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783412</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.566560126443</v>
+        <v>909.273154178341</v>
       </c>
       <c r="Y34" t="n">
-        <v>1184.566560126443</v>
+        <v>909.273154178341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672751</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464048</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4646447998178</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>571.9733873631767</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.705720206928</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.724074459056</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>2276.820037858392</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>785.8969543930616</v>
+        <v>952.5320614616468</v>
       </c>
       <c r="C37" t="n">
-        <v>617.0716693278778</v>
+        <v>783.5958785337399</v>
       </c>
       <c r="D37" t="n">
-        <v>467.0659277782651</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="E37" t="n">
-        <v>319.263732058595</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F37" t="n">
-        <v>172.4846824234074</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985992</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769883</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016702</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813948</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1959.874718194081</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U37" t="n">
-        <v>1959.874718194081</v>
+        <v>2127.064314576282</v>
       </c>
       <c r="V37" t="n">
-        <v>1705.301127850917</v>
+        <v>1872.379826370395</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.99485567668</v>
+        <v>1582.962656333434</v>
       </c>
       <c r="X37" t="n">
-        <v>1188.116202641385</v>
+        <v>1354.973105435417</v>
       </c>
       <c r="Y37" t="n">
-        <v>967.4345213605783</v>
+        <v>1134.180526291887</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2588208963573</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127637</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347668</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M38" t="n">
-        <v>2232.714216052256</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="L39" t="n">
-        <v>142.6450845291499</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6634387812777</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.759402180614</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.635877180808</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.219395606884</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1069.9678742545</v>
+        <v>1069.223274319069</v>
       </c>
       <c r="C40" t="n">
-        <v>905.2348984125108</v>
+        <v>904.6011963398032</v>
       </c>
       <c r="D40" t="n">
-        <v>759.3214660860924</v>
+        <v>758.7986618761087</v>
       </c>
       <c r="E40" t="n">
-        <v>615.6115795896167</v>
+        <v>615.1996732423568</v>
       </c>
       <c r="F40" t="n">
-        <v>472.9248391776237</v>
+        <v>472.6238306930876</v>
       </c>
       <c r="G40" t="n">
-        <v>309.9138514381199</v>
+        <v>309.7237408163077</v>
       </c>
       <c r="H40" t="n">
-        <v>172.2443415624677</v>
+        <v>172.1651288033792</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024334</v>
+        <v>177.0587253013235</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379043</v>
+        <v>440.9157065320496</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859462</v>
+        <v>832.905778875346</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095313</v>
+        <v>1256.363625179967</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151928</v>
+        <v>1675.287745231836</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431865</v>
+        <v>2046.538456507028</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532977</v>
+        <v>2341.297145603395</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.33732035132</v>
+        <v>2463.238533416993</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.681182395739</v>
+        <v>2399.693293324135</v>
       </c>
       <c r="S40" t="n">
-        <v>2219.714199220587</v>
+        <v>2220.837208011706</v>
       </c>
       <c r="T40" t="n">
-        <v>2004.238624020886</v>
+        <v>2220.837208011706</v>
       </c>
       <c r="U40" t="n">
-        <v>1973.002810819579</v>
+        <v>2220.837208011706</v>
       </c>
       <c r="V40" t="n">
-        <v>1973.002810819579</v>
+        <v>1971.814619433252</v>
       </c>
       <c r="W40" t="n">
-        <v>1687.788847868536</v>
+        <v>1686.711554344932</v>
       </c>
       <c r="X40" t="n">
-        <v>1464.002504056436</v>
+        <v>1463.036108395556</v>
       </c>
       <c r="Y40" t="n">
-        <v>1247.413131998823</v>
+        <v>1246.557634200667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963573</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127637</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.951912946789</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052794</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>965.2563978701667</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>965.2563978701667</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319312</v>
+        <v>921.9831621891573</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656807</v>
+        <v>778.3953859427361</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>653.627153211886</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>531.0624663109786</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>409.520925494554</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296842</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887711</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>894.7529362604284</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2485.607179501921</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799956</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127639</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>921.9831621891569</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>778.3953859427357</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>653.6271532118858</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>531.0624663109785</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>409.5209254945539</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296845</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887715</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604288</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8696,13 +8696,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>104.3976710547477</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400264</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>49.74439522492628</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>49.74439522492617</v>
+        <v>51.31264782911285</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782911305</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>101.9313958891312</v>
+        <v>221.8607089201923</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>153.1786713734392</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>73.08464294441309</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>80.37004734071274</v>
+        <v>130.3466769161758</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>68.40576640459047</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>4.161645759914913</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65835143757676</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S25" t="n">
-        <v>17.1048707928842</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.29441573969234</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>78.69109960846421</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>61.67935016456627</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.3554362891114</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.579046671727849</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>116.5670581301971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>87.55092481138996</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.6947878603132</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>235.379988586144</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>213.211030563607</v>
       </c>
       <c r="U40" t="n">
-        <v>251.1008214640683</v>
+        <v>281.9144876492656</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087698</v>
+        <v>1.334316732002806</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.747935129969846e-12</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1112801.608006616</v>
+        <v>1112801.608006615</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1113529.081416402</v>
+        <v>1113461.430343173</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1116716.494869946</v>
+        <v>1116821.595815363</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1132592.097353464</v>
+        <v>1133204.770368543</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1132592.097353464</v>
+        <v>1133204.770368543</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>297811.3401652377</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="F2" t="n">
         <v>297811.3401652376</v>
@@ -26329,10 +26329,10 @@
         <v>297811.3401652376</v>
       </c>
       <c r="H2" t="n">
-        <v>297811.3401652377</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="I2" t="n">
-        <v>297811.3401652376</v>
+        <v>297811.3401652374</v>
       </c>
       <c r="J2" t="n">
         <v>297811.3401652375</v>
@@ -26341,19 +26341,19 @@
         <v>297811.3401652376</v>
       </c>
       <c r="L2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652374</v>
       </c>
       <c r="M2" t="n">
-        <v>302529.6735129112</v>
+        <v>302506.1164194596</v>
       </c>
       <c r="N2" t="n">
-        <v>303398.968091151</v>
+        <v>303422.5251846022</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991066</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991065</v>
       </c>
     </row>
     <row r="3">
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485551</v>
+        <v>312970.0160233569</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769889</v>
+        <v>3416.771119320874</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668371</v>
+        <v>16659.16697241282</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709183</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.6079970918</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709189</v>
-      </c>
       <c r="M4" t="n">
-        <v>5156.962217674893</v>
+        <v>5069.915760662911</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725572</v>
+        <v>6475.275729222968</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.39591959024</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591959027</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557142.8899712772</v>
+        <v>-557142.8899712773</v>
       </c>
       <c r="C6" t="n">
-        <v>32824.98924326719</v>
+        <v>32824.98924326712</v>
       </c>
       <c r="D6" t="n">
-        <v>32824.98924326696</v>
+        <v>32824.98924326705</v>
       </c>
       <c r="E6" t="n">
-        <v>-547569.2000789745</v>
+        <v>-547636.3955692005</v>
       </c>
       <c r="F6" t="n">
-        <v>179808.213914432</v>
+        <v>179741.0184242063</v>
       </c>
       <c r="G6" t="n">
-        <v>179808.213914432</v>
+        <v>179741.0184242064</v>
       </c>
       <c r="H6" t="n">
-        <v>179808.2139144321</v>
+        <v>179741.0184242064</v>
       </c>
       <c r="I6" t="n">
-        <v>179808.213914432</v>
+        <v>179741.0184242062</v>
       </c>
       <c r="J6" t="n">
-        <v>3384.994721839088</v>
+        <v>3317.799231613339</v>
       </c>
       <c r="K6" t="n">
-        <v>179808.213914432</v>
+        <v>179741.0184242061</v>
       </c>
       <c r="L6" t="n">
-        <v>179808.213914432</v>
+        <v>179741.0184242059</v>
       </c>
       <c r="M6" t="n">
-        <v>-116501.6237734917</v>
+        <v>-116499.7518036631</v>
       </c>
       <c r="N6" t="n">
-        <v>192412.0044278388</v>
+        <v>192211.5956246852</v>
       </c>
       <c r="O6" t="n">
-        <v>169450.1015487555</v>
+        <v>174864.3563005723</v>
       </c>
       <c r="P6" t="n">
-        <v>192278.0399454389</v>
+        <v>191523.5232729849</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26762,22 +26762,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962361</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698149</v>
+        <v>20.82395871551603</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26984,19 +26984,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-3.397188397072774e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>70.68347423266886</v>
       </c>
       <c r="Y2" t="n">
-        <v>319.368914423719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>101.8148464227923</v>
       </c>
       <c r="W4" t="n">
-        <v>234.895872610803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.9068224466922</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>355.1609132049519</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,19 +27822,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>170.4896183879343</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>126.2738305891822</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>95.33242890779644</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>96.15224293924214</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>11.36078253109406</v>
       </c>
       <c r="X10" t="n">
-        <v>42.88385506877273</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-3.689546683711769e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058181</v>
+        <v>4.27096389915482</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>25.09492261467085</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>25.0949226146709</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I32" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>187.87601763965</v>
+        <v>187.8760176396602</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K42" t="n">
-        <v>163.5723821283055</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>535.7779407933663</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>306.4674191928375</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35416,13 +35416,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306441</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35817,7 +35817,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226302</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306253</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>559.9877854470799</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282456</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>675.5219512913656</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
         <v>728.2874363020583</v>
@@ -37321,7 +37321,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404112</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475634</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M38" t="n">
-        <v>778.0318315269844</v>
+        <v>779.600084131168</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>49.32163785977581</v>
+        <v>49.32163785978599</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.9410971257187</v>
+        <v>84.05088600981477</v>
       </c>
       <c r="K40" t="n">
-        <v>266.412414379264</v>
+        <v>266.5222032633596</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394362</v>
+        <v>395.9495680235317</v>
       </c>
       <c r="M40" t="n">
-        <v>427.625409403401</v>
+        <v>427.7351982874964</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359743</v>
+        <v>423.1556768200697</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756941</v>
+        <v>375.0007184597897</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081941</v>
+        <v>297.7360495922898</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.063330119538</v>
+        <v>123.173119003634</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>178.6700086136961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394657</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>397.223561013492</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>677.0902038955487</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>164.3333852708192</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>104.8748447253309</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390478</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030125</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078059</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
